--- a/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="2805"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="2805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
     <sheet name="Deals" sheetId="2" r:id="rId2"/>
     <sheet name="Companies" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>title</t>
   </si>
@@ -124,6 +125,63 @@
   </si>
   <si>
     <t>Employees</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>First Deals</t>
+  </si>
+  <si>
+    <t>A1233</t>
+  </si>
+  <si>
+    <t>dealsTitle</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Good Deals</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>This first deal to CITI company, it is good deal.</t>
+  </si>
+  <si>
+    <t>NextStep</t>
+  </si>
+  <si>
+    <t>Add the product and amount and new deal with the company</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Create the first deal in the Deal table</t>
+  </si>
+  <si>
+    <t>Primary Contact</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Citi Card Deals</t>
   </si>
 </sst>
 </file>
@@ -472,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -598,13 +656,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -641,4 +762,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
+        <v>8983290695</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>